--- a/Data/EC/NIT-9018586895.xlsx
+++ b/Data/EC/NIT-9018586895.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98580F2A-769F-4BF4-85BB-AF1BFFE36870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6CD4EB1-8074-473B-83B2-8ED8D82AC710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{887CC393-9BF9-4795-A20B-3E58A0AE586A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{81201D52-58EC-4D34-B9AA-D8AB64091B62}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,13 +65,22 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45547986</t>
+  </si>
+  <si>
+    <t>LUISA CARMELA VASQUEZ BELTRAN</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
     <t>1045670210</t>
   </si>
   <si>
     <t>DIEGO ALEXANDER DIAZ ORTIZ</t>
   </si>
   <si>
-    <t>2507</t>
+    <t>2508</t>
   </si>
   <si>
     <t>1128063151</t>
@@ -80,24 +89,12 @@
     <t>KATYA MILENIS RODRIGUEZ DIAZ</t>
   </si>
   <si>
-    <t>73211529</t>
-  </si>
-  <si>
-    <t>ELY ALFREDO FERNANDEZ CAIROZA</t>
-  </si>
-  <si>
     <t>45499877</t>
   </si>
   <si>
     <t>MARLY PEREZ LOMBANA</t>
   </si>
   <si>
-    <t>1102835840</t>
-  </si>
-  <si>
-    <t>DIANA CAROLINA BALLESTAS ARRIETA</t>
-  </si>
-  <si>
     <t>1128062374</t>
   </si>
   <si>
@@ -134,12 +131,6 @@
     <t>NEIDER ENRIQUE CONTRERAS MENDEZ</t>
   </si>
   <si>
-    <t>45547986</t>
-  </si>
-  <si>
-    <t>LUISA CARMELA VASQUEZ BELTRAN</t>
-  </si>
-  <si>
     <t>1143394628</t>
   </si>
   <si>
@@ -234,6 +225,12 @@
   </si>
   <si>
     <t>MARIO RAFAEL VERGARA CASTRO</t>
+  </si>
+  <si>
+    <t>1007314639</t>
+  </si>
+  <si>
+    <t>JHONATANN GUERRERO AGAMEZ</t>
   </si>
   <si>
     <t>1001973462</t>
@@ -338,7 +335,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -351,9 +350,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -553,23 +550,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,10 +594,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,7 +650,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A30DBCC-D4F5-1431-9133-8E59E266F502}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2AA309-6DCD-40F7-79C0-B44A29C9C4A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1004,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0871AD-C282-40EF-A9E2-7037DC31F404}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C9616B-FF19-4D34-A710-3E7618E668B5}">
   <dimension ref="B2:J50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1029,7 +1026,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1074,7 +1071,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1106,7 +1103,7 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
@@ -1122,17 +1119,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1159,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1182,10 +1179,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>280000</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>2000000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1202,13 +1199,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>60940</v>
+        <v>280000</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>7000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1219,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>60940</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>1523500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1242,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
@@ -1265,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
-        <v>56940</v>
+        <v>72000</v>
       </c>
       <c r="G20" s="18">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1288,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21" s="18">
-        <v>72000</v>
+        <v>92400</v>
       </c>
       <c r="G21" s="18">
-        <v>1890000</v>
+        <v>2310000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1311,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F22" s="18">
-        <v>92400</v>
+        <v>56940</v>
       </c>
       <c r="G22" s="18">
-        <v>2310000</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1334,13 +1331,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F23" s="18">
         <v>56940</v>
@@ -1357,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F24" s="18">
-        <v>56940</v>
+        <v>72000</v>
       </c>
       <c r="G24" s="18">
-        <v>1423500</v>
+        <v>1800000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1380,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
-        <v>72000</v>
+        <v>88000</v>
       </c>
       <c r="G25" s="18">
-        <v>1800000</v>
+        <v>2200000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1403,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
-        <v>88000</v>
+        <v>56940</v>
       </c>
       <c r="G26" s="18">
-        <v>2100000</v>
+        <v>1423500</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1426,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F27" s="18">
         <v>56940</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1449,19 +1446,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F28" s="18">
         <v>56940</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1472,19 +1469,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F29" s="18">
-        <v>56940</v>
+        <v>92400</v>
       </c>
       <c r="G29" s="18">
-        <v>1423500</v>
+        <v>2310000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1495,19 +1492,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F30" s="18">
-        <v>92400</v>
+        <v>71400</v>
       </c>
       <c r="G30" s="18">
-        <v>2310000</v>
+        <v>1785000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1518,19 +1515,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F31" s="18">
-        <v>71400</v>
+        <v>72000</v>
       </c>
       <c r="G31" s="18">
-        <v>1785000</v>
+        <v>1800000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1541,19 +1538,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F32" s="18">
-        <v>72000</v>
+        <v>56940</v>
       </c>
       <c r="G32" s="18">
-        <v>1800000</v>
+        <v>1423500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1564,13 +1561,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>45</v>
-      </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>56940</v>
@@ -1587,19 +1584,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F34" s="18">
-        <v>56940</v>
+        <v>88000</v>
       </c>
       <c r="G34" s="18">
-        <v>1423500</v>
+        <v>2200000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1610,19 +1607,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F35" s="18">
-        <v>88000</v>
+        <v>56940</v>
       </c>
       <c r="G35" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1633,13 +1630,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F36" s="18">
         <v>56940</v>
@@ -1656,19 +1653,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>53</v>
-      </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F37" s="18">
-        <v>56940</v>
+        <v>440000</v>
       </c>
       <c r="G37" s="18">
-        <v>1300000</v>
+        <v>11000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1679,19 +1676,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F38" s="18">
-        <v>440000</v>
+        <v>71400</v>
       </c>
       <c r="G38" s="18">
-        <v>8000000</v>
+        <v>1785000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1702,19 +1699,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>57</v>
-      </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F39" s="18">
-        <v>71400</v>
+        <v>104000</v>
       </c>
       <c r="G39" s="18">
-        <v>1785000</v>
+        <v>2600000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1725,19 +1722,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F40" s="18">
-        <v>104000</v>
+        <v>56940</v>
       </c>
       <c r="G40" s="18">
-        <v>1700000</v>
+        <v>1423500</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1748,13 +1745,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>61</v>
-      </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F41" s="18">
         <v>56940</v>
@@ -1771,13 +1768,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>63</v>
-      </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F42" s="18">
         <v>56940</v>
@@ -1794,13 +1791,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="E43" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F43" s="18">
         <v>56940</v>
@@ -1817,13 +1814,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="23" t="s">
-        <v>67</v>
-      </c>
       <c r="E44" s="22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F44" s="24">
         <v>56940</v>
@@ -1837,22 +1834,22 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="32"/>
       <c r="H49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="32"/>
       <c r="H50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
